--- a/console/Elastic-Compute/Virtual-Machine/computeXlsx/components/create_basicMsg.xlsx
+++ b/console/Elastic-Compute/Virtual-Machine/computeXlsx/components/create_basicMsg.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\8月分配\SN205-LF0028-180821-console_Output-译文-ZZH处理\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ZYYT\Desktop\京东云\_JDC反馈\云主机反馈\Virtual-Machine-En_Output-updated 0830\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -138,15 +138,9 @@
     <t>error_tips_three</t>
   </si>
   <si>
-    <t>'Must provide a name';</t>
-  </si>
-  <si>
     <t>error_tips_four</t>
   </si>
   <si>
-    <t>'The name length cannot exceed 32 characters';</t>
-  </si>
-  <si>
     <t>error_tips_five</t>
   </si>
   <si>
@@ -168,9 +162,6 @@
     <t>error_tips_eight</t>
   </si>
   <si>
-    <t>'Passwords input the two times are consistent!';</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="12"/>
@@ -768,6 +759,18 @@
       </rPr>
       <t>';</t>
     </r>
+  </si>
+  <si>
+    <t>Name cannot be blank';</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The length of name cannot exceed 32 characters';</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Passwords input are inconsistent.';</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -822,9 +825,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1166,14 +1170,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" topLeftCell="C10" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="21" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="95.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.625" style="1" customWidth="1"/>
     <col min="3" max="3" width="154.75" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="16384" width="9" style="1"/>
   </cols>
@@ -1183,7 +1187,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -1194,7 +1198,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>3</v>
@@ -1205,7 +1209,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>5</v>
@@ -1216,7 +1220,7 @@
         <v>6</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>7</v>
@@ -1227,7 +1231,7 @@
         <v>8</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -1238,7 +1242,7 @@
         <v>10</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>11</v>
@@ -1249,7 +1253,7 @@
         <v>12</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>13</v>
@@ -1260,7 +1264,7 @@
         <v>14</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>15</v>
@@ -1271,7 +1275,7 @@
         <v>16</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>17</v>
@@ -1282,7 +1286,7 @@
         <v>18</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>19</v>
@@ -1293,7 +1297,7 @@
         <v>20</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>21</v>
@@ -1304,7 +1308,7 @@
         <v>22</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>23</v>
@@ -1315,7 +1319,7 @@
         <v>24</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>25</v>
@@ -1326,7 +1330,7 @@
         <v>26</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>27</v>
@@ -1337,7 +1341,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>29</v>
@@ -1348,7 +1352,7 @@
         <v>30</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>31</v>
@@ -1359,7 +1363,7 @@
         <v>32</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>33</v>
@@ -1370,7 +1374,7 @@
         <v>34</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>35</v>
@@ -1381,7 +1385,7 @@
         <v>36</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>37</v>
@@ -1392,72 +1396,72 @@
         <v>38</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>39</v>
+        <v>66</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>41</v>
+        <v>67</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B25" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C25" s="2" t="s">
         <v>74</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>49</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="C1:C25 A1:A25" numberStoredAsText="1"/>
+    <ignoredError sqref="C1:C19 A1:A25 C22:C24" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>